--- a/database.xlsx
+++ b/database.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC65534-5B7D-40A1-9195-42ED2610C6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="11304" yWindow="768" windowWidth="11280" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,49 +20,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>idx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, ai</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>min 6, unique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_pwd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>min 8, reg, nn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>idx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>pk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK (company_idx)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(80)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>job_desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>pk, ai</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(16)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>min 6, unique</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_pwd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(16)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>min 8, reg, nn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_email</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reg_date</t>
+    <t>FK (company_idx)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hirement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>industry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>foundation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -69,158 +186,106 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>auto</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>idx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>company</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>member</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK (company_idx)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reg_date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(80)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>location</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>job_desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK (company_idx)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hirement</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전 회사들</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>industry</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>foundation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mypage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>idx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK (member_id)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ohana</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔로잉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔로어</t>
+    <t>desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>following</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>follower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK (location_idx)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK (country_id)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>career</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cls_title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instructor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK (member_idx)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>topics</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -289,10 +360,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -574,219 +646,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="1.375" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="1.375" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" customWidth="1"/>
+    <col min="5" max="5" width="1.3984375" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.796875" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.3984375" customWidth="1"/>
+    <col min="11" max="11" width="11.09765625" customWidth="1"/>
+    <col min="12" max="12" width="16.09765625" customWidth="1"/>
+    <col min="13" max="13" width="3.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
       <c r="J3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="F17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>46</v>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
